--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/D/10/seed5/result_data_KNN.xlsx
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.481999999999999</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
